--- a/Forecasts/Humboldt.xlsx
+++ b/Forecasts/Humboldt.xlsx
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-03-18 09:30:48"</t>
+    <t xml:space="preserve">[1] "2021-03-18 10:28:29"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Humboldt.xlsx
+++ b/Forecasts/Humboldt.xlsx
@@ -7484,7 +7484,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:34:18"</t>
+    <t xml:space="preserve">[1] "2021-04-20 11:54:01"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
